--- a/misc/translations/en_la.xlsx
+++ b/misc/translations/en_la.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B183"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,103 +372,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Welcome</t>
+          <t>.acorn data successfully generated!</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສຳເລັດການສ້າງຂໍ້ມູນ.acorn!</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Language</t>
+          <t>.acorn file saved on server.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ພາສາ</t>
+          <t>ເອກະສານ.acorn ບັນທຶກລົງໃນ server ແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ACORN Participating Countries</t>
+          <t>.acorn not saved.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>.acorn ບໍ່ໄດ້ຖືກບັນທຶກ.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>What is ACORN?</t>
+          <t>(1/4) Download Clinical data</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>(1/4) ດາວໂລດຂໍ້ມູນທາງຄຣີນິກ</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>About</t>
+          <t>(2/4) Provide Lab data</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>(2/4) ຈັດຫາຂໍ້ມູນແລັບ</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Please log in</t>
+          <t>(3/4) Combine Clinical and Lab data</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>(3/4) ລວມຂໍ້ມູນຄຣີນິກ ແລະ ຂໍ້ມູນແລັບເຂົ້າກັນ</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Successfully logged in.</t>
+          <t>(4/4) Save .acorn file</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>(4/4)ບັນທຶກເອກະສານຂອງ.acorn</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Site</t>
+          <t>(Optional) Comments:</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>(ຕົວເລືອກ) ຄຳຄິດເຫັນ</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>User</t>
+          <t>(To log out, close the app.)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -480,7 +480,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Password</t>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -492,7 +492,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Log in</t>
+          <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -504,115 +504,115 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>To log out, close the app.</t>
+          <t>ACORN Participating Countries</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ປະເທດທີ່ເຂົ້າຮ່ວມ ACORN</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>upload a local acorn file.</t>
+          <t>All 'orgname' are provided.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ທຸກໆ 'orgname'ທັງໝົດແມ່ນຖືກຕອບສະໜອງ</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Data Management</t>
+          <t>All 'patid' are provided.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>patid' ທັງໝົດແມ່ນຖືກຕອບສະໜອງ</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>What do you want to do?</t>
+          <t>All 'specdate' are provided.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>specdate' ທັງໝົດແມ່ນຖືກຕອບສະໜອງ</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>The REDCap dataset contains data.</t>
+          <t>All 'specdate' are today or before today.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ທຸກໆ 'specdate' ແມ່ນມື້ນີ້ ຫຼື ມື້ກ່ອນໜ້ານີ້</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>The REDCap dataset is empty. Please contact ACORN support.</t>
+          <t>All 'specgroup' are provided.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ທັງໝົດຂອງ'specgroup' ແມ່ນຖືກກຳນົດໄວ້ແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>The REDCap dataset column names do not match. Please contact ACORN support.</t>
+          <t>All 'specid' are provided.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>specid' ທັງໝົດແມ່ນຖືກຕອບສະໜອງ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>The REDCap dataset column names match.</t>
+          <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ທຸກວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບHAI ຈັບຄູ່ເຂົ້າກັບວັນທີເຮັດການສຳຫຼວດ HAI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Critical errors with clinical data.</t>
+          <t>All Other Organisms</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຕົວເຊື້ອອື່ນໆທັງໝົດ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
+          <t>All valid records have an ACORN ID.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Clinical data successfully provided.</t>
+          <t>AMR</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -636,163 +636,163 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Reading lab data.</t>
+          <t>and generate enrolment log.</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ແລະສ້າງບັນທຶກການເຂົ້າຮ່ວມ</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Processing lab data.</t>
+          <t>Attempting to connect.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກຳລັງພະຍາຍາມເຊື່ອມຕໍ່</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lab data successfully processed!</t>
+          <t>Blood culture collected within 24 hours of admission (CAI) / symptom onset (HAI)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ປູກເລືອດພາຍໃນ24ຊົ່ວໂມງຂອງການເຂົ້ານອນ (CAI) / ເລີ້ມມີການຊຶມເຊື້ອໃນໂຮງໝໍ (HAI)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Generating .acorn</t>
+          <t>Blood Culture Contaminants</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການປົນເປື້ອນຂອງການປູກເລືອດ</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Supply first valid clinical and lab data.</t>
+          <t>Bloodstream Infection (BSI)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການຊຶມເຊື້ອໃນກະແສເລືອດ</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>.acorn data successfully generated!</t>
+          <t>Calculated age is consistent with 'Age Category'</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການຄິດໄລ່ອາຍຸແມ່ນເໝາະສົມກັບ 'Age Category'</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>No .acorn data loaded.</t>
+          <t>Calculated age isn't always consistent with 'Age Category'</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການຄິດໄລ່ອາຍຸອາດບໍ່ເໝາະສົມກັບ 'Age Category' ສະເໝີໄປ</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>.acorn not saved.</t>
+          <t>Cancel</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຍົກເລີກ</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Not connected to internet.</t>
+          <t>Care should be taken when interpreting rates and AMR profiles where there are small numbers of cases or bacterial isolates: point estimates may be unreliable.</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຄວນໃຊ້ຄວາມລະມັດລະວັງໃນການແປຄວາມໝາຍອັດຕາແລະຮູບຮ່າງລັກສະນະຂອງການຕ້ານຕໍ່ຢາຕ້ານເຊື້ອທີ່ມີຈຳນວນຄົນເຈັບໜ້ອຍ ຫຼື ແບັກທີເຣຍທີ່ແຍກໄດ້: ການແປຜົນອາດບໍ່ໜ້າເຊື່ອຖື</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Attempting to connect.</t>
+          <t>Clinical and day-28 outcomes are consistent.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ອາການຄຣີນິກ ແລະ ການຕິດຕາມມື້ທີ 28 ແມ່ນກົງກັນ</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Clinical data not provided</t>
+          <t>Clinical and day-28 outcomes aren't consistent for some dead patients.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ອາການຄຣີນິກ ແລະ ການຕິດຕາມມື້ທີ 28 ບໍ່ກົງກັນໃນບາງຄົນເຈັບທີ່ເສຍຊີວິດ</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lab data not provided</t>
+          <t>Clinical Outcome</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ອາການຫຼັງຕິດຕາມ</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>No .acorn has been generated</t>
+          <t>Clinical Outcome Status:</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສະຖານະພາບອາການຄຣີນິກຫຼັງຕິດຕາມ</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>No .acorn has been saved</t>
+          <t>Co-resistances</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -804,127 +804,127 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Generate .acorn from clinical and lab data</t>
+          <t>Combine Susceptible + Intermediate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Susceptible + Intermediate ລວມເຂົ້າກັນ</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Load existing .acorn from cloud</t>
+          <t>Consider saving .acorn file on the cloud for additional security.</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຄວນພິຈາລະນາບັນທຶກຂໍ້ມູນ.acorn ໃນ cloud ເພື່ອຄວາມປອດໄພເພີ້ມເຕີມ</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Load existing .acorn from local file</t>
+          <t>Couldn't connect to server. Please check internet access.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບໍ່ສາມາດເຊື່ອມຕໍ່ກັບ server ໄດ້. ກະລຸນາກວດສອບການເຂົ້າເຖິງອີນເຕີເນັດ</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Download Enrolment Log (.xlsx)</t>
+          <t>Critical errors with clinical data.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຂໍ້ຜິດພາດທີ່ຮ້າຍແຮງກ່ຽວກັບຂໍ້ມູນທາງຄຣີນິກ.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
+          <t>Culture results per specimen type</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຜົນການປູກຕໍ່ກັບປະເພດຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Loading data.</t>
+          <t>Data Management</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການຈັດການຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Successfully loaded data.</t>
+          <t>Date of Enrolment</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ວັນທີເຂົ້າຮ່ວມການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Retriving data from REDCap server.</t>
+          <t>Day 28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ມື້ທີ28</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>It might take a couple of minutes. This window will close on completion.</t>
+          <t>Day 28 Status:</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສະຖານະພາບມື້ທີ28</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Critical issue detected: no data or wrong data format on REDCap server. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
+          <t>Diagnosis at Enrolment</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການບົ່ງມະຕິເວລາເຂົ້າການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Save acorn data</t>
+          <t>Dismiss</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -936,199 +936,199 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Cancel</t>
+          <t>Distribution of Enrolments</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການແຈກຢາຍຂອງການເຂົ້າຮ່ວມ</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>(Optional) Comments:</t>
+          <t>Download Enrolment Log (.xlsx)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ດຶງຂໍ້ມູນບັນທຶກການເຂົ້າຮ່ວມ (.xlsx)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Save on Server</t>
+          <t>Empiric Antibiotics Prescribed</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການໃຫ້ຢາຕ້ານເຊື້ອກ່ອນການບົ່ງມະຕິຊັດເຈນ</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>File name:</t>
+          <t>Enrolments</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເຂົ້າການສືກສາ</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Trying to save .acorn file on server.</t>
+          <t>Enrolments by (type of) Ward</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເຂົ້າຮ່ວມການສຶກສາໂດຍ(ປະເພດຂອງ)ພະແນກ</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>.acorn file saved on server.</t>
+          <t>Enrolments with Blood Culture</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເຂົ້າຮ່ວມການສຶກສາສົມທົບກັບປູກເລືອດ</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
+          <t>Error in combining clinical and lab data.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເກີດຂໍ້ຜິດພາດໃນການລວມຂໍ້ມູນທາງຄຣີນິກກັບຂໍ້ມູນທາງຫ້ອງວິເຄາະ</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally.</t>
+          <t>Every D28 record (F04) matches exactly one patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ທຸກໆຟອມບັນທຶກມື້ທີ28 (F04) ຈັບຄູ່ກັບຟອມເຂົ້າການສືກສາ (F01).</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Successfully saved .acorn file locally. You can now explore acorn data.</t>
+          <t>Every hospital outcome record (F03) has a matching infection episode (F02).</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ທຸກໆຟອມບັນທຶກອອກໂຮງໝໍ (F03) ຈັບຄູ່ເຂົ້າກັບຟອມພາກການຊຶມເຊື້ອ (F02).</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Consider saving .acorn file on the cloud for additional security.</t>
+          <t>Every hospital outcome record (F03) has a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າຮ່ວມການສຶກສາ (F01)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Select lab data format:</t>
+          <t>Every infection episode record (F02) has a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ທຸກໆຟອມບັນທຶກພາກການຊຶມເຊື້ອ (F02) ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າການສຶກສາ (F01)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>(1/4) Download Clinical data</t>
+          <t>File name:</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຊື່ເອກະສານ</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>and generate enrolment log.</t>
+          <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ໜ້າທຳອິດເປັນບັນທຶກການລົງທະບຽນເຂົ້າຮ່ວມທັງໝົດທີ່ດຶງມາຈາກREDCap (ຕາມຕາຕະລາງທີ່ຢູ່ໃກ້ກັນ) ໜ້າທີສອງແມ່ນການສະແດງລາຍການອົງປະກອບທີ່ຖືກຕັ້ງຄ່າແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Get data from REDCap</t>
+          <t>Follow-up</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການຕິດຕາມ</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>(2/4) Provide Lab data</t>
+          <t>from cultures that have growth</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ມີເຊື້ອເກີດຈາກການປູກ</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>(3/4) Combine Clinical and Lab data</t>
+          <t>Generate .acorn file</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສ້າງເອກະສານຂອງ.acorn</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Save .acorn file</t>
+          <t>Generate and load .acorn from clinical and lab data</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1140,31 +1140,31 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Generate .acorn file</t>
+          <t>Generating .acorn</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກຳລັງສ້າງ .acorn</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>(4/4) Save .acorn file</t>
+          <t>Get data from REDCap</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເອົາຂໍ້ມູນຈາກ REDCap</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Overview</t>
+          <t>Get the latest production release</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1176,43 +1176,43 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Date of Enrolment</t>
+          <t>Growth / No Growth</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເກີດເຊື້ອ/ບໍ່ເກີດເຊື້ອ</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>See by Week</t>
+          <t>HAI point prevalence by type of ward</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຄວາມຊຸກຊຸມ HAI ແບ່ງຕາມປະເພດຂອງພະແນກ</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Enrolments with Blood Culture</t>
+          <t>HAI Prevalence</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຄວາມຊຸກຊຸມຂອງການຊຶມເຊື້ອໃນໂຮງໝໍ</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Distribution of Enrolments</t>
+          <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1224,7 +1224,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Variables in Table:</t>
+          <t>Info on loaded .acorn</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1236,31 +1236,31 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Enrolments by (type of) Ward</t>
+          <t>Initial &amp; Final Surveillance Diagnosis</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການບົ່ງມະຕິການເຝົ້າລະວັງໃນເບື້ອງຕົ້ນແລະຂັ້ນສຸດທ້າຍ</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>See Breakdown by Ward</t>
+          <t>Isolates</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການແຍກເຊື້ອ</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Patient Age Distribution</t>
+          <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1272,91 +1272,91 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Diagnosis at Enrolment</t>
+          <t>It might take a couple of minutes. This window will close on completion.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ອາດໃຊ້ເວລາເລັກນ້ອຍ, ໜ້າຕ່າງນີ້ຈະປິດລົງເມື່ອສຳເລັດ</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Empiric Antibiotics Prescribed</t>
+          <t>Lab data successfully processed!</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສຳເລັດການປະມວນຜົນຂໍ້ມູນທາງຫ້ອງວິເຄາະ!</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Patients Transferred</t>
+          <t>Lab data successfully provided.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ໃຫ້ຂໍ້ມູນແລັບສຳເລັດແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Patient Comorbidities</t>
+          <t>Lab dataset contains the minimal columns.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Show comorbidities combinations</t>
+          <t>Lab dataset does not contains the minimal columns.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ໃນຊຸດຂໍ້ມູນຂອງແລັບບໍ່ມີຖັນຈຳກັດຈຳນວນໜ້ອຍ</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Blood culture collected within 24 hours of admission (CAI) / symptom onset (HAI)</t>
+          <t>Language</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ພາສາ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Follow-up</t>
+          <t>Load .acorn</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Load .acorn</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Clinical Outcome</t>
+          <t>Load .acorn from cloud</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1368,7 +1368,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Clinical Outcome Status:</t>
+          <t>Load .acorn from local file</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -1380,175 +1380,175 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Day 28</t>
+          <t>Load selected .acorn</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເລືອກ Load .acorn</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Day 28 Status:</t>
+          <t>Loading data.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກຳລັງດຶງຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Bloodstream Infection (BSI)</t>
+          <t>Log in</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເຂົ້າສູ່ລະບົບ</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Initial &amp; Final Surveillance Diagnosis</t>
+          <t>Microbiology</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຈຸລີນຊີວິທະຍາ</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>The 10 most common initial-final diagnosis combinations:</t>
+          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>10 ຕົວເຊື້ອທີ່ມັກພົບຫຼາຍທີ່ສຸດຖືກສະແດງໃນຮູບພາບ ແລະ ລາຍການທັງໝົດແມ່ນຖືກນຳສະເໜີຢູ່ໃນຕາຕະລາງ. ເຊື້ອປົນເປື້ອນແມ່ນເປັນສີແດງ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ward Occupancy Rates</t>
+          <t>No .acorn data loaded.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບໍ່ມີຂໍ້ມູນ.acorn ທີ່ຖືກດຶງ.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HAI Prevalence</t>
+          <t>No Blood Culture</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບໍ່ມີການເລືອດປູກ</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Microbiology</t>
+          <t>Not connected to internet.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບໍ່ໄດ້ເຊື່ອມຕໍ່ອີນເຕີເນັດ.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Remove blood culture contaminants from the following visualizations</t>
+          <t>Number of specimens per specimen type</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຈຳນວນຕົວຢ່າງຕໍ່ກັບປະເພດຂອງຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Blood Culture Contaminants</t>
+          <t>Occupancy rate per type of ward per month</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ອັດຕາການເຂົ້ານອນຕໍ່ປະເພດຂອງພະແນກຕໍ່ເດືອນ</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Specimen Types</t>
+          <t>of blood cultures grew a potential contaminant.</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຂອງການປູກເລືອດເປັນໄປໄດ້ອາດເກີດເຊື້ອປົນເປື້ອນ</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Number of specimens per specimen type</t>
+          <t>of cultures have growth.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຂອງການປູກມີເກີດເຊື້ອ</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Culture results per specimen type</t>
+          <t>of enrolments with blood culture.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຂອງການເຂົ້າການສຶກສາກັບການປູກເລືອດ</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Growth / No Growth</t>
+          <t>of Target Pathogens</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຂອງເຊື້ອເປົ້າໝາຍ</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Isolates</t>
+          <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -1560,295 +1560,295 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Most frequent 10 organisms in the plot and complete listing in the table. Contaminants are in red.</t>
+          <t>Overview</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ພາບລວມ</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Combine Susceptible + Intermediate</t>
+          <t>Password</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ລະຫັດຜ່ານ</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Care should be taken when interpreting rates and AMR profiles where there are small numbers of cases or bacterial isolates: point estimates may be unreliable.</t>
+          <t>Patient Age Distribution</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການແຈກຢາຍອາຍຸຂອງຄົນເຈັບ</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Resistance to Carbapenems Over Time</t>
+          <t>Patient Comorbidities</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ພະຍາດປະຈຳໂຕຂອງຄົນເຈັບ</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>There is no data to display for this organism.</t>
+          <t>Patient enrolments</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຄົນເຈັບທີ່ເຂົ້າການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
+          <t>Patients Transferred</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຄົນເຈັບຖືກນຳສົ່ງ</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Resistance to Fluoroquinolones Over Time</t>
+          <t>Please log in</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກະລຸນາລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>All Other Organisms</t>
+          <t>Processing lab data.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກຳລັງປະມວນຜົນຂໍ້ມູນຫ້ອງວິເຄາະ</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G Over Time</t>
+          <t>Reading lab data.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກຳລັງອ່ານຂໍ້ມູນຫ້ອງວິເຄາະ</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Resistance to Penicillin G - meningitis Over Time</t>
+          <t>Remove blood culture contaminants from the following visualizations</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການປູກເລືອດທີ່ມີການປົນເປື້ອນແມ່ນລົບຜົນອອກຈາກຜົນການສະແດງຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Resistance to Oxacillin Over Time</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>Reset Enrolments Filters</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Enrolments</t>
+          <t>Resistance to 3rd gen. Cephalosporins Over Time</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການຕ້ານຕໍ່ 3rd gen. Cephalosporins ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Reset Enrolments Filters</t>
+          <t>Resistance to Carbapenems Over Time</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ມີການຕ້ານຕໍ່ຢາ Carbapenems ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Specimens, Isolates</t>
+          <t>Resistance to Fluoroquinolones Over Time</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການຕ້ານຕໍ່ Fluoroquinolones ຄ່ອຍເປັນຄ່ອຍໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Patient enrolments</t>
+          <t>Resistance to Oxacillin Over Time</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການຕ້ານຕໍ່ຢາ Oxacillin ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>With Microbiology</t>
+          <t>Resistance to Penicillin G - meningitis Over Time</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການຕ້ານຕໍ່ຢາ Penicillin G- meningitis ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Specimens Collected</t>
+          <t>Resistance to Penicillin G Over Time</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການຕ້ານຕໍ່ຢາ Penicillin G ເປັນໄປຕາມໄລຍະເວລາ</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>from cultures that have growth</t>
+          <t>Retriving data from REDCap server.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກຳລັງກູ້ຄືນຂໍ້ມູນຈາກຖານ REDCap</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>of Target Pathogens</t>
+          <t>Save .acorn file</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບັນທຶກເອກະສານຂອງ.acorn</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>of enrolments with blood culture.</t>
+          <t>Save acorn data</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບັນທຶກຂໍ້ມູນ acorn</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Couldn't connect to server. Please check internet access.</t>
+          <t>Save on Server</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບັນທຶກລົງໃນຖານຂໍ້ມູນ</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Wrong connection credentials.</t>
+          <t>See Breakdown by Ward</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເບິ່ງລາຍລະອຽດໂດຍອິງໃສ່ພະແນກ</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Problem with credentials. Please contact ACORN support.</t>
+          <t>See by Week</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເບິງລາຍອາທິດ</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Load selected .acorn</t>
+          <t>Select lab data format:</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ເລືອກຮູບແບບຂໍ້ມູມແລັບ</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Load .acorn</t>
+          <t>Show antibiotics combinations</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -1860,19 +1860,19 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>of cultures have growth.</t>
+          <t>Show comorbidities combinations</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນຮ່ວມ</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>of blood cultures grew a potential contaminant.</t>
+          <t>SIR Evaluation</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -1884,19 +1884,19 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>specimens per enrolment</t>
+          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງຟອມບັນທຶກມື້ທີ28 (F04 ) ບໍ່ຈັບຄູ່ກັບຟອມເຂົ້າການສຶກສາ (F01).</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Blood Culture</t>
+          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -1908,43 +1908,43 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Other Specimens:</t>
+          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມພາກການຊຶມເຊື້ອ (F02). ຟອມເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>No deduplication of isolates</t>
+          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງຟອມບັນທຶກອອກໂຮງໝໍ (F03) ບໍ່ຈັບຄູ່ເຂົ້າກັບແບບຟອມເຂົ້າການສຶກສາ (F01)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Deduplication by patient-episode</t>
+          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງຟອມບັນທຶກພາກການຊຶມເຊື້ອ (F02) ບໍ່ຈັບຄູ່ເຂົ້າກັບຟອມເຂົ້າການສຶກສາ (F01).ບັນທຶກເຫຼົ່ານີ້ຖືກລຶບແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Deduplication by patient ID</t>
+          <t>Some records with a missing ACORN ID. These records have been removed.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -1956,19 +1956,19 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Use heuristic for time unit</t>
+          <t>Specimen Types</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ປະເພດຂອງຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Display by month</t>
+          <t>Specimens</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -1980,103 +1980,103 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Display by year</t>
+          <t>Specimens Collected</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການເກັບຕົວຢ່າງ</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Occupancy rate per type of ward per month</t>
+          <t>specimens per enrolment</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຕົວຢ່າງຕໍ່ການເຂົ້າຮ່ວມການສຶກສາ</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HAI point prevalence by type of ward</t>
+          <t>Successfully combined clinical and lab data into .acorn file</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສຳເລັດການລວມຂໍ້ມູນທາງຄຣີນິກກັບຂໍ້ມູນທາງຫ້ອງວິເຄາະເຂົ້າໃນ .acorn file</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>We couldn't download the lab data dictionary. Please contact ACORN support.</t>
+          <t>Successfully loaded data.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສຳເລັດການດຶງຂໍ້ມູນແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
+          <t>Successfully logged in.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສຳເລັດການລົງທະບຽນເຂົ້າສູ່ລະບົບ</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>REDCap data could not be downloaded. Please try again.</t>
+          <t>Successfully saved .acorn file in the cloud. You can now explore acorn data.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສຳເລັດການບັນທຶກເອກະສານ .acorn ໃນ cloud. ທ່ານສາມາດກວດສອບຂໍ້ມູນ .acorn ໄດ້ແລ້ວ</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>All records have an ACORN ID.</t>
+          <t>Successfully saved .acorn file locally.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ສຳເລັດການບັນທຶກເອກກະສານ.acorn ໃນເຄື່ອງ</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Not all records have an ACORN ID.</t>
+          <t>Supply first valid clinical and lab data.</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຈັດຫາຂໍ້ມູນຄຣີນິກແລະຫ້ອງວິເຄາະຄົບຖ້ວນເປັນອັນດັບທຳອິດ</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Every D28 record (F04) matches exactly one patient enrolment (F01).</t>
+          <t>Susceptible &amp; Intermediate are always combined in this visualisation of co-resistances.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -2088,19 +2088,19 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
+          <t>The 10 most common initial-final diagnosis combinations:</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>10 ອັນດັບການບົ່ງມະຕິໃນເບື້ອງຕົ້ນ ແລະ ສຸດທ້າຍ ທີ່ພົບຫຼາຍທີ່ສຸດ</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Every hospital outcome record (F03) has a matching infection episode (F02).</t>
+          <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2112,19 +2112,19 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
+          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ການເຊື່ອມຕໍ່ລະຫັດຂໍ້ມູນຄົນເຈັບເກີດຂໍ້ຜິດພາດ (ເກີດການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Every infection episode record (F02) has a matching patient enrolment (F01).</t>
+          <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2136,7 +2136,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Some infection episode records (F02) don't have a matching patient enrolment (F01). These records have been removed.</t>
+          <t>The REDCap dataset is in the right format.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2148,7 +2148,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Every hospital outcome record (F03) has a matching patient enrolment (F01).</t>
+          <t>There are D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2160,7 +2160,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Some hospital outcome records (F03) don't have a matching patient enrolment (F01).</t>
+          <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2172,7 +2172,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
+          <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -2184,7 +2184,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
+          <t>There are no D28 follow-up done before the expected D28 date.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -2196,19 +2196,19 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Clinical and day-28 outcomes are consistent.</t>
+          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບໍ່ມີຜົນແຍກການທົດສອບຢາຕ້ານເຊື້ອທີ່ສົມບູນ. ກະລຸນາຕິດຕໍ່ຝ່າຍສະໜັບສະໜຸນ ACORN</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Clinical and day-28 outcomes aren't consistent for some dead patients.</t>
+          <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2220,139 +2220,139 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Calculated age is consistent with 'Age Category'</t>
+          <t>There are no problem case (overlapping specimen collection windows)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບໍ່ພົບກໍລະນີທີ່ມີບັນຫາ ( ການທັບຊ້ອນຂໍ້ມູນຕົວຢ່າງທີ່ເກັບລວບລວມ):</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Calculated age isn't always consistent with 'Age Category'</t>
+          <t>There are rows for which 'specdate' are after today.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ມີແຖວຂອງ'specdate' ເເມ່ນມື້ຫຼັງຈາກນີ້</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
+          <t>There are rows with missing 'orgname'.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງແຖວບໍ່ມີ 'orgname'.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Lab data successfully provided.</t>
+          <t>There are rows with missing 'patid'.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງແຖວບໍ່ມີ 'patid'</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Lab dataset contains the minimal columns.</t>
+          <t>There are rows with missing 'specdate'.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງແຖວບໍ່ມີ 'specdate'</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Lab dataset does not contains the minimal columns.</t>
+          <t>There are rows with missing 'specgroup'.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງແຖວບໍ່ມີ 'specgroup'.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>All 'patid' are provided.</t>
+          <t>There are rows with missing 'specid'.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບາງແຖວບໍ່ມີ 'specid'</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>There are rows with missing 'patid'.</t>
+          <t>There is a critical issue with clinical data. The issue should be fixed in REDCap.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ມີບັນຫາຮ້າຍແຮງກ່ຽວກັບຂໍ້ມູນທາງຄຣີນິກ. ຄວນໄດ້ຮັບການແກ້ໄຂຢູ່ໃນ REDCap.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>All 'specid' are provided.</t>
+          <t>There is no data to display for this organism.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບໍ່ມີຂໍ້ມູນນຳສະເໜີສຳລັບຕົວເຊື້ອນີ້</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specid'.</t>
+          <t>There is no HAI survey data</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ບໍ່ມີຂໍ້ມູນການສຳຫຼວດ HAI</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>All 'specdate' are provided.</t>
+          <t>Trying to save .acorn file on server.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ກຳລັງພະຍາຍຍາມບັນທຶກເອກະສານ .acorn ລົງ server</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specdate'.</t>
+          <t>Updated Charlson Comorbidity Index (uCCI)</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -2364,55 +2364,55 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>All 'specdate' are today or before today.</t>
+          <t>User</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຜູ້ໃຊ້ງານ</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>There are rows for which 'specdate' are after today.</t>
+          <t>Variables in Table:</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຕົວແປໃນຕາຕະລາງ</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>All 'specgroup' are provided.</t>
+          <t>Ward Occupancy Rates</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ອັດຕາຄວາມໜາແໜ້ນໃນພະແນກ</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>There are rows with missing 'specgroup'.</t>
+          <t>We couldn't download the lab codes file. Please contact ACORN support.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ພວກເຮົາບໍ່ສາມາດດາວໂລດເອກະສານລະຫັດແລັບ. ກະລຸນາຕິດຕໍ່ຜູ້ສະໜັບສະໜຸນ ACORN</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>All 'orgname' are provided.</t>
+          <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -2424,55 +2424,55 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>There are rows with missing 'orgname'.</t>
+          <t>Welcome</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຍີນດີຕ້ອນຮັບ</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>There are no atypical case (one CAI / early HAI but no overlap).</t>
+          <t>What do you want to do?</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ທ່ານຕ້ອງການຢາກເຮັດຫຍັງ?</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>The following 'patient id' are atypical cases (one CAI / early HAI but no overlap):</t>
+          <t>With Microbiology</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຮ່ວມກັບຈຸລີນຊີວິທະຍາ</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>There are no problem case (overlapping specimen collection windows)</t>
+          <t>Wrong connection credentials.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຂໍ້ມູນຮັບຮອງການເຊື່ອມຕໍ່ບໍ່ຖືກຕ້ອງ</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
+          <t>You are running ACORN dashboard</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -2484,7 +2484,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Successfully combined clinical and lab data into .acorn file</t>
+          <t>You can check here if it's the latest production release.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -2496,7 +2496,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Error in combining clinical and lab data.</t>
+          <t>Your ACORN dashboard is up to date</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -2508,48 +2508,24 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Records in Lab data and BSI forms: </t>
+          <t>Follow us on Twitter</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TBT</t>
+          <t>ຕິດຕາມພວກເຮົາໄດ້ທີ່ Twitter</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>There is no HAI survey data</t>
+          <t>Records in Lab data and BSI forms:</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TBT</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Follow us on Twitter</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>TBT</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>No Blood Culture</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>TBT</t>
+          <t>ບັນທຶກຂໍ້ມູນໃນຫ້ອງວິເຄາະ ແລະ ແບບຟອມ BSI</t>
         </is>
       </c>
     </row>

--- a/misc/translations/en_la.xlsx
+++ b/misc/translations/en_la.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/ACORN/acorn-dashboard/misc/translations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A3F0D9-5D06-6E4A-876A-E6E15B250C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A29104A-BE7E-4C4B-9B8A-E7D368C4B5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="23260" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="354">
   <si>
     <t>en</t>
   </si>
@@ -79,9 +79,6 @@
     <t>(To log out, close the app.)</t>
   </si>
   <si>
-    <t>TBT</t>
-  </si>
-  <si>
     <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
   </si>
   <si>
@@ -430,6 +427,9 @@
     <t>Info on loaded .acorn</t>
   </si>
   <si>
+    <t>Initial &amp; Final Surveillance Diagnosis</t>
+  </si>
+  <si>
     <t>ການບົ່ງມະຕິການເຝົ້າລະວັງໃນເບື້ອງຕົ້ນແລະຂັ້ນສຸດທ້າຍ</t>
   </si>
   <si>
@@ -721,9 +721,6 @@
     <t>Show comorbidities combinations</t>
   </si>
   <si>
-    <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນຮ່ວມ</t>
-  </si>
-  <si>
     <t>SIR Evaluation</t>
   </si>
   <si>
@@ -1000,14 +997,98 @@
     <t>ບັນທຶກຂໍ້ມູນໃນຫ້ອງວິເຄາະ ແລະ ແບບຟອມ BSI</t>
   </si>
   <si>
-    <t>Initial and Final Surveillance Diagnosis</t>
+    <t>ບັນທຶກທັງໝົດມີ ACORN ID ຖືກຕ້ອງ</t>
+  </si>
+  <si>
+    <t>ການຕ້ານຕໍ່ຢາຕ້ານເຊື້ອ</t>
+  </si>
+  <si>
+    <t>(ອອກຈາກລະບົບ, ປິດ app.)</t>
+  </si>
+  <si>
+    <t>ຂໍ້ມູນ ACORN ແມ່ນຢູ່ໃນຮູບແບບທີ່ບໍ່ຖືກຕ້ອງ. ສະເພາະຂໍ້ມູນທີ່ສ້າງຈາກ v2.1   ເທົ່ານັ້ນທີ່ເຂົ້າກັນໄດ້</t>
+  </si>
+  <si>
+    <t>ສະແດງການໃຫ້ຢາຕ້ານເຊື້ອຮ່ວມກັນ</t>
+  </si>
+  <si>
+    <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນໆຮ່ວມ</t>
+  </si>
+  <si>
+    <t>ການປະເມີນ SIR</t>
+  </si>
+  <si>
+    <t>ຕົວຢ່າງ</t>
+  </si>
+  <si>
+    <t>ຊຸດຂໍ້ມູນ REDCap ຫວ່າງເປົ່າ/ຢູ່ໃນຮູບແບທີ່ບໍ່ຖືກຕ້ອງ. ກະລຸນາຕິດຕໍ່ ACORN support.</t>
+  </si>
+  <si>
+    <t>ຊຸດຂໍ້ມູນ REDCap ແມ່ນຢູ່ໃນຮູບແບບທີ່ຖືກຕ້ອງ.</t>
+  </si>
+  <si>
+    <t>ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
+  </si>
+  <si>
+    <t>ບໍ່ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
+  </si>
+  <si>
+    <t>ພວກເຮົາບໍ່ສາມາດຶງຂໍ້ມູນພົດຈະນານຸກົມຂອງແລັບ. ກະລຸນາຕິດຕໍ່ ACORN support</t>
+  </si>
+  <si>
+    <t>ສ້າງ ແລະ ດຶງຂໍ້ມູນ .acorn ຈາກຂໍ້ມູນທາງຄຣີນິກ ແລະ ແລັບ</t>
+  </si>
+  <si>
+    <t>ໄດ້ຮັບ production ຫຼ້າສຸດ</t>
+  </si>
+  <si>
+    <t>ແຖບແນວນອນສະແດງຂະຫນາດຂອງຊຸດຂອງຜົນໄດ້ຮັບ SR ໃນຂະນະທີ່ແຖບຕັ້ງສະແດງເຖິງຈໍານວນຂອງການແຍກເຊື້ອທີ່ຕ້ານຕໍ່ຢາສຳລັບຢາຕ້ານເຊື້ອທີ່ກ່ຽວຂ້ອງ.</t>
+  </si>
+  <si>
+    <t>ກວດພົບບັນຫາກ່ຽວກັບຂໍ້ມູນໃນ REDCap. ກະລຸນາແຈ້ງຕໍ່ຜູ້ຈັດການຂໍ້ມູນ ACORN, ຈົນກວ່າຈະໄດ້ຂໍ້ສະຫຼຸບ. ທ່ານສາມາດນຳໃຊ້ຂໍ້ມູນຂອງ .acorn ທີ່ມີຢູ່ໄດ້ເທົ່ານັ້ນ</t>
+  </si>
+  <si>
+    <t>ຂໍ້ມູນ Susceptible &amp; Intermediate ແມ່ນຖືກລວມເຂົ້າກັນທຸກໆຄັ້ງໃນການນຳສະເໜີຂໍ້ມູນຂອງ co-resistances.</t>
+  </si>
+  <si>
+    <t>ບໍ່ມີກໍລະນີທີ່ຜິດປົກກະຕິ  (HCAI/CAI ໜຶ່ງລາຍການນີ້ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ).</t>
+  </si>
+  <si>
+    <t>ທ່ານກຳລັງໃຊ້ງານ ACORN dashboard</t>
+  </si>
+  <si>
+    <t>ທ່ານສາມາດກວດສອບໄດ້ຢູ່ບ່ອນນີ້ວ່າເປັນເວີຊັນທີ່ໃຊ້ງານຫຼ້າສຸດຫຼືບໍ່</t>
+  </si>
+  <si>
+    <t>ACORN dashboard ໄດ້ຮັບການ update ແລ້ວ</t>
+  </si>
+  <si>
+    <t>ຟອມ F02 ບໍ່ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
+  </si>
+  <si>
+    <t>ຟອມ F02 ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ລະຫັດຄົນເຈັບຕໍ່ໄປນີ້ເປັນກໍລະນີທີ່ຜິດປົກກະຕິ (HCAI/CAI ໜຶ່ງລາຍການນີ້ທີ່ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ) </t>
+  </si>
+  <si>
+    <t>ບາງວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບ HAI ຈະກົງກັນກັບວັນທີໃນຊຸດຂໍ້ມູນຂອງການສຳຫຼວດ HAI</t>
+  </si>
+  <si>
+    <t>ຂໍ້ມູນ ACORN ແມ່ນຢູ່ໃນຮູບແບບທີ່ບໍ່ຖືກຕ້ອງ. ສະເພາະຂໍ້ມູນທີ່ສ້າງຈາກ v2.1 (ຫຼື ເວີຊັນທີ່ໃໝ່ກວ່າ) ເທົ່ານັ້ນທີ່ເຂົ້າກັນໄດ້</t>
+  </si>
+  <si>
+    <t>ສະເພາະເຊື້ອພະຍາດທີ່ຖືກທົດສອບໃສ່ກັບຢາທັງໝົດ ທີ່ຖືກນຳສະເໜີໃນຮູບພາບນີ້</t>
+  </si>
+  <si>
+    <t>ບັນທຶກບາງລາຍການບໍ່ມີ ACORN ID. ບັນທຶກເຫຼົ່ານີ້ໄດ້ຖືກລືບແລ້ວ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,6 +1103,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1044,11 +1131,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1389,11 +1479,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="90.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="69" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1404,1446 +1499,1447 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="B21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="B22" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B23" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B32" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="B34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="B36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B36" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="B40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B45" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="B47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="B48" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="B49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="B50" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="B52" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B52" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B53" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="B54" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B54" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="B55" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B55" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="B56" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="B57" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B57" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="B59" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B59" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B60" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B61" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B61" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="B62" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B62" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B63" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B63" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B64" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B64" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="B65" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="B66" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B67" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B67" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B68" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="B69" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B70" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B70" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="B71" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B71" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="B72" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B72" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="B73" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B73" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>326</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B76" t="s">
-        <v>19</v>
+      <c r="B76" s="2" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="A77" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="A78" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="A79" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="A80" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="A81" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="A82" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="A83" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="A84" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B84" t="s">
-        <v>19</v>
+      <c r="B84" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B85" t="s">
-        <v>19</v>
+      <c r="B85" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="A86" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="A87" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="A88" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="A89" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="A90" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="A91" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="A92" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="A94" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="A95" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="A96" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="A97" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="A99" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="A100" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B100" t="s">
-        <v>19</v>
+      <c r="B100" s="2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="A101" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="A102" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="A103" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="A104" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="A105" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="A106" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="A107" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="A109" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="A110" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="A111" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="A112" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="A113" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="A114" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="A115" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="A116" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="A117" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="A119" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="A120" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="A121" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="A122" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="A123" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="A124" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="A125" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B125" t="s">
-        <v>19</v>
+      <c r="B125" s="2" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="A126" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="B127" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B127" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="B128" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B128" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="B129" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B129" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="B130" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B130" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="B131" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B131" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="B132" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B132" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="B133" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B133" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="B134" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B134" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="B135" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B135" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="B136" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B136" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="B137" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B137" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="B138" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B138" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="B139" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B139" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="B140" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B140" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="B141" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B141" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="B142" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B142" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="B143" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B143" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="B144" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B144" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="B145" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B145" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="B146" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B146" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="B147" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B147" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="B148" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B148" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="B149" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B149" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="B150" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B150" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="B151" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B151" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="B152" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B152" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="B153" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B153" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="B154" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B154" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+      <c r="B155" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B155" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="B156" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B156" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+      <c r="B157" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B157" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+      <c r="B158" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B158" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="B159" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B159" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="B160" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B160" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="B161" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B161" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="B162" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B162" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+      <c r="B163" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B163" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="B164" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B164" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="B165" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B165" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="B166" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B166" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="B167" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B167" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="B168" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B168" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="B169" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B169" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="B170" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B170" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="B171" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B171" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="B172" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B172" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="B173" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B173" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+      <c r="B174" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B174" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="B175" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B175" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="B176" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B176" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="B177" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B177" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="B178" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B178" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="B179" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B179" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="B180" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B180" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="B181" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B181" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/misc/translations/en_la.xlsx
+++ b/misc/translations/en_la.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/ACORN/acorn-dashboard/misc/translations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A29104A-BE7E-4C4B-9B8A-E7D368C4B5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE521BB0-685E-634A-AF0E-DCD82C7A219C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23260" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="-20000" windowWidth="24540" windowHeight="13240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="364">
   <si>
     <t>en</t>
   </si>
@@ -67,9 +67,6 @@
     <t>(4/4) Save .acorn file</t>
   </si>
   <si>
-    <t>(4/4)ບັນທຶກເອກະສານຂອງ.acorn</t>
-  </si>
-  <si>
     <t>(Optional) Comments:</t>
   </si>
   <si>
@@ -79,10 +76,7 @@
     <t>(To log out, close the app.)</t>
   </si>
   <si>
-    <t>ACORN data is not of the right format. Only data generated with v2.1 (or later versions) is compatible.</t>
-  </si>
-  <si>
-    <t>ACORN data is not of the right format. Only data generated with v2.1 is compatible.</t>
+    <t>(ອອກຈາກລະບົບ, ປິດ app.)</t>
   </si>
   <si>
     <t>ACORN Participating Countries</t>
@@ -118,9 +112,6 @@
     <t>All 'specgroup' are provided.</t>
   </si>
   <si>
-    <t>ທັງໝົດຂອງ'specgroup' ແມ່ນຖືກກຳນົດໄວ້ແລ້ວ</t>
-  </si>
-  <si>
     <t>All 'specid' are provided.</t>
   </si>
   <si>
@@ -130,9 +121,6 @@
     <t>All dates of enrolment for HAI patients have a matching date in the HAI survey dataset</t>
   </si>
   <si>
-    <t>ທຸກວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບHAI ຈັບຄູ່ເຂົ້າກັບວັນທີເຮັດການສຳຫຼວດ HAI</t>
-  </si>
-  <si>
     <t>All Other Organisms</t>
   </si>
   <si>
@@ -142,9 +130,15 @@
     <t>All valid records have an ACORN ID.</t>
   </si>
   <si>
+    <t>ບັນທຶກທັງໝົດມີ ACORN ID ຖືກຕ້ອງ</t>
+  </si>
+  <si>
     <t>AMR</t>
   </si>
   <si>
+    <t>ການຕ້ານຕໍ່ຢາຕ້ານເຊື້ອ</t>
+  </si>
+  <si>
     <t>and generate enrolment log.</t>
   </si>
   <si>
@@ -211,6 +205,9 @@
     <t>ອາການຄຣີນິກ ແລະ ການຕິດຕາມມື້ທີ 28 ບໍ່ກົງກັນໃນບາງຄົນເຈັບທີ່ເສຍຊີວິດ</t>
   </si>
   <si>
+    <t>Clinical data not provided</t>
+  </si>
+  <si>
     <t>Clinical Outcome</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
     <t>ຄວນພິຈາລະນາບັນທຶກຂໍ້ມູນ.acorn ໃນ cloud ເພື່ອຄວາມປອດໄພເພີ້ມເຕີມ</t>
   </si>
   <si>
+    <t>Contains names of organisms before and after mapping.</t>
+  </si>
+  <si>
     <t>Couldn't connect to server. Please check internet access.</t>
   </si>
   <si>
@@ -301,6 +301,9 @@
     <t>ດຶງຂໍ້ມູນບັນທຶກການເຂົ້າຮ່ວມ (.xlsx)</t>
   </si>
   <si>
+    <t>Download Lab Log (.xlsx)</t>
+  </si>
+  <si>
     <t>Empiric Antibiotics Prescribed</t>
   </si>
   <si>
@@ -316,9 +319,6 @@
     <t>Enrolments by (type of) Ward</t>
   </si>
   <si>
-    <t>ເຂົ້າຮ່ວມການສຶກສາໂດຍ(ປະເພດຂອງ)ພະແນກ</t>
-  </si>
-  <si>
     <t>Enrolments with Blood Culture</t>
   </si>
   <si>
@@ -364,9 +364,6 @@
     <t>First sheet is the log of all enrolments retrived from REDCap (as per adjacent table). The second sheet is a listing of all flagged elements.</t>
   </si>
   <si>
-    <t>ໜ້າທຳອິດເປັນບັນທຶກການລົງທະບຽນເຂົ້າຮ່ວມທັງໝົດທີ່ດຶງມາຈາກREDCap (ຕາມຕາຕະລາງທີ່ຢູ່ໃກ້ກັນ) ໜ້າທີສອງແມ່ນການສະແດງລາຍການອົງປະກອບທີ່ຖືກຕັ້ງຄ່າແລ້ວ</t>
-  </si>
-  <si>
     <t>Follow-up</t>
   </si>
   <si>
@@ -388,6 +385,9 @@
     <t>Generate and load .acorn from clinical and lab data</t>
   </si>
   <si>
+    <t>ສ້າງ ແລະ ດຶງຂໍ້ມູນ .acorn ຈາກຂໍ້ມູນທາງຄຣີນິກ ແລະ ແລັບ</t>
+  </si>
+  <si>
     <t>Generating .acorn</t>
   </si>
   <si>
@@ -403,16 +403,13 @@
     <t>Get the latest production release</t>
   </si>
   <si>
+    <t>ໄດ້ຮັບ production ຫຼ້າສຸດ</t>
+  </si>
+  <si>
     <t>Growth / No Growth</t>
   </si>
   <si>
-    <t>ເກີດເຊື້ອ/ບໍ່ເກີດເຊື້ອ</t>
-  </si>
-  <si>
-    <t>HAI point prevalence by type of ward</t>
-  </si>
-  <si>
-    <t>ຄວາມຊຸກຊຸມ HAI ແບ່ງຕາມປະເພດຂອງພະແນກ</t>
+    <t xml:space="preserve">HAI point prevalence by </t>
   </si>
   <si>
     <t>HAI Prevalence</t>
@@ -424,13 +421,16 @@
     <t>Horizontal bars show the size of a set of SR results while vertical bars show the number of resistant isolates for the corresponding antibiotic.</t>
   </si>
   <si>
+    <t>ແຖບແນວນອນສະແດງຂະຫນາດຂອງຊຸດຂອງຜົນໄດ້ຮັບ SR ໃນຂະນະທີ່ແຖບຕັ້ງສະແດງເຖິງຈໍານວນຂອງການແຍກເຊື້ອທີ່ຕ້ານຕໍ່ຢາສຳລັບຢາຕ້ານເຊື້ອທີ່ກ່ຽວຂ້ອງ.</t>
+  </si>
+  <si>
     <t>Info on loaded .acorn</t>
   </si>
   <si>
     <t>Initial &amp; Final Surveillance Diagnosis</t>
   </si>
   <si>
-    <t>ການບົ່ງມະຕິການເຝົ້າລະວັງໃນເບື້ອງຕົ້ນແລະຂັ້ນສຸດທ້າຍ</t>
+    <t>Initial and Final Surveillance Diagnosis</t>
   </si>
   <si>
     <t>Isolates</t>
@@ -442,12 +442,18 @@
     <t>Issue detected with REDCap data. Please report to ACORN data managers. Until resolution, only existing .acorn files can be used.</t>
   </si>
   <si>
+    <t>ກວດພົບບັນຫາກ່ຽວກັບຂໍ້ມູນໃນ REDCap. ກະລຸນາແຈ້ງຕໍ່ຜູ້ຈັດການຂໍ້ມູນ ACORN, ຈົນກວ່າຈະໄດ້ຂໍ້ສະຫຼຸບ. ທ່ານສາມາດນຳໃຊ້ຂໍ້ມູນຂອງ .acorn ທີ່ມີຢູ່ໄດ້ເທົ່ານັ້ນ</t>
+  </si>
+  <si>
     <t>It might take a couple of minutes. This window will close on completion.</t>
   </si>
   <si>
     <t>ອາດໃຊ້ເວລາເລັກນ້ອຍ, ໜ້າຕ່າງນີ້ຈະປິດລົງເມື່ອສຳເລັດ</t>
   </si>
   <si>
+    <t>Lab data not provided</t>
+  </si>
+  <si>
     <t>Lab data successfully processed!</t>
   </si>
   <si>
@@ -523,6 +529,12 @@
     <t>ບໍ່ມີຂໍ້ມູນ.acorn ທີ່ຖືກດຶງ.</t>
   </si>
   <si>
+    <t>No .acorn has been generated</t>
+  </si>
+  <si>
+    <t>No .acorn has been saved</t>
+  </si>
+  <si>
     <t>No Blood Culture</t>
   </si>
   <si>
@@ -574,6 +586,9 @@
     <t>Only isolates that have been tested against all of the drugs are included in the upset plot.</t>
   </si>
   <si>
+    <t>ສະເພາະເຊື້ອພະຍາດທີ່ຖືກທົດສອບໃສ່ກັບຢາທັງໝົດ ທີ່ຖືກນຳສະເໜີໃນຮູບພາບນີ້</t>
+  </si>
+  <si>
     <t>Overview</t>
   </si>
   <si>
@@ -628,6 +643,9 @@
     <t>ກຳລັງອ່ານຂໍ້ມູນຫ້ອງວິເຄາະ</t>
   </si>
   <si>
+    <t>Remove 'Not Cultured' specimens</t>
+  </si>
+  <si>
     <t>Remove blood culture contaminants from the following visualizations</t>
   </si>
   <si>
@@ -709,21 +727,24 @@
     <t>ເບິງລາຍອາທິດ</t>
   </si>
   <si>
-    <t>Select lab data format:</t>
-  </si>
-  <si>
-    <t>ເລືອກຮູບແບບຂໍ້ມູມແລັບ</t>
-  </si>
-  <si>
     <t>Show antibiotics combinations</t>
   </si>
   <si>
+    <t>ສະແດງການໃຫ້ຢາຕ້ານເຊື້ອຮ່ວມກັນ</t>
+  </si>
+  <si>
     <t>Show comorbidities combinations</t>
   </si>
   <si>
+    <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນໆຮ່ວມ</t>
+  </si>
+  <si>
     <t>SIR Evaluation</t>
   </si>
   <si>
+    <t>ການປະເມີນ SIR</t>
+  </si>
+  <si>
     <t>Some D28 records (F04) don't have a matching patient enrolment (F01).</t>
   </si>
   <si>
@@ -733,6 +754,9 @@
     <t>Some dates of enrolment for HAI patients do have a matching date in the HAI survey dataset</t>
   </si>
   <si>
+    <t>ບາງວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບ HAI ຈະກົງກັນກັບວັນທີໃນຊຸດຂໍ້ມູນຂອງການສຳຫຼວດ HAI</t>
+  </si>
+  <si>
     <t>Some hospital outcome records (F03) don't have a matching infection episode (F02). These records have been removed.</t>
   </si>
   <si>
@@ -754,6 +778,9 @@
     <t>Some records with a missing ACORN ID. These records have been removed.</t>
   </si>
   <si>
+    <t>ບັນທຶກບາງລາຍການບໍ່ມີ ACORN ID. ບັນທຶກເຫຼົ່ານີ້ໄດ້ຖືກລືບແລ້ວ</t>
+  </si>
+  <si>
     <t>Specimen Types</t>
   </si>
   <si>
@@ -763,6 +790,9 @@
     <t>Specimens</t>
   </si>
   <si>
+    <t>ຕົວຢ່າງ</t>
+  </si>
+  <si>
     <t>Specimens Collected</t>
   </si>
   <si>
@@ -811,7 +841,7 @@
     <t>ຈັດຫາຂໍ້ມູນຄຣີນິກແລະຫ້ອງວິເຄາະຄົບຖ້ວນເປັນອັນດັບທຳອິດ</t>
   </si>
   <si>
-    <t>Susceptible &amp; Intermediate are always combined in this visualisation of co-resistances.</t>
+    <t>Susceptible and Intermediate are always combined in this visualisation of co-resistances.</t>
   </si>
   <si>
     <t>The 10 most common initial-final diagnosis combinations:</t>
@@ -823,6 +853,9 @@
     <t>The following 'patient id' are atypical cases (one HCAI/CAI with early HAI but no overlap):</t>
   </si>
   <si>
+    <t>ລະຫັດຄົນເຈັບຕໍ່ໄປນີ້ເປັນກໍລະນີທີ່ຜິດປົກກະຕິ (HCAI/CAI ໜຶ່ງລາຍການນີ້ທີ່ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ)</t>
+  </si>
+  <si>
     <t>The following 'patient id' are problem case (overlapping specimen collection windows):</t>
   </si>
   <si>
@@ -832,21 +865,39 @@
     <t>The REDCap dataset is empty/in wrong format. Please contact ACORN support.</t>
   </si>
   <si>
+    <t>ຊຸດຂໍ້ມູນ REDCap ຫວ່າງເປົ່າ/ຢູ່ໃນຮູບແບທີ່ບໍ່ຖືກຕ້ອງ. ກະລຸນາຕິດຕໍ່ ACORN support.</t>
+  </si>
+  <si>
     <t>The REDCap dataset is in the right format.</t>
   </si>
   <si>
+    <t>ຊຸດຂໍ້ມູນ REDCap ແມ່ນຢູ່ໃນຮູບແບບທີ່ຖືກຕ້ອງ.</t>
+  </si>
+  <si>
     <t>There are D28 follow-up done before the expected D28 date.</t>
   </si>
   <si>
+    <t>ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
+  </si>
+  <si>
     <t>There are multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
   </si>
   <si>
+    <t>ຟອມ F02 ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
+  </si>
+  <si>
     <t>There are no atypical case (one HCAI/CAI with early HAI but no overlap).</t>
   </si>
   <si>
+    <t>ບໍ່ມີກໍລະນີທີ່ຜິດປົກກະຕິ  (HCAI/CAI ໜຶ່ງລາຍການນີ້ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ).</t>
+  </si>
+  <si>
     <t>There are no D28 follow-up done before the expected D28 date.</t>
   </si>
   <si>
+    <t>ບໍ່ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
+  </si>
+  <si>
     <t>There are no isolate with valid AST results. Please contact ACORN support.</t>
   </si>
   <si>
@@ -856,6 +907,9 @@
     <t>There are no multiple F02 with identical ACORN ID, admission date, and episode enrolment date.</t>
   </si>
   <si>
+    <t>ຟອມ F02 ບໍ່ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
+  </si>
+  <si>
     <t>There are no problem case (overlapping specimen collection windows)</t>
   </si>
   <si>
@@ -865,9 +919,6 @@
     <t>There are rows for which 'specdate' are after today.</t>
   </si>
   <si>
-    <t>ມີແຖວຂອງ'specdate' ເເມ່ນມື້ຫຼັງຈາກນີ້</t>
-  </si>
-  <si>
     <t>There are rows with missing 'orgname'.</t>
   </si>
   <si>
@@ -952,6 +1003,9 @@
     <t>We couldn't download the lab data dictionary. Please contact ACORN support</t>
   </si>
   <si>
+    <t>ພວກເຮົາບໍ່ສາມາດຶງຂໍ້ມູນພົດຈະນານຸກົມຂອງແລັບ. ກະລຸນາຕິດຕໍ່ ACORN support</t>
+  </si>
+  <si>
     <t>Welcome</t>
   </si>
   <si>
@@ -979,12 +1033,21 @@
     <t>You are running ACORN dashboard</t>
   </si>
   <si>
+    <t>ທ່ານກຳລັງໃຊ້ງານ ACORN dashboard</t>
+  </si>
+  <si>
     <t>You can check here if it's the latest production release.</t>
   </si>
   <si>
+    <t>ທ່ານສາມາດກວດສອບໄດ້ຢູ່ບ່ອນນີ້ວ່າເປັນເວີຊັນທີ່ໃຊ້ງານຫຼ້າສຸດຫຼືບໍ່</t>
+  </si>
+  <si>
     <t>Your ACORN dashboard is up to date</t>
   </si>
   <si>
+    <t>ACORN dashboard ໄດ້ຮັບການ update ແລ້ວ</t>
+  </si>
+  <si>
     <t>Follow us on Twitter</t>
   </si>
   <si>
@@ -997,91 +1060,76 @@
     <t>ບັນທຶກຂໍ້ມູນໃນຫ້ອງວິເຄາະ ແລະ ແບບຟອມ BSI</t>
   </si>
   <si>
-    <t>ບັນທຶກທັງໝົດມີ ACORN ID ຖືກຕ້ອງ</t>
-  </si>
-  <si>
-    <t>ການຕ້ານຕໍ່ຢາຕ້ານເຊື້ອ</t>
-  </si>
-  <si>
-    <t>(ອອກຈາກລະບົບ, ປິດ app.)</t>
-  </si>
-  <si>
-    <t>ຂໍ້ມູນ ACORN ແມ່ນຢູ່ໃນຮູບແບບທີ່ບໍ່ຖືກຕ້ອງ. ສະເພາະຂໍ້ມູນທີ່ສ້າງຈາກ v2.1   ເທົ່ານັ້ນທີ່ເຂົ້າກັນໄດ້</t>
-  </si>
-  <si>
-    <t>ສະແດງການໃຫ້ຢາຕ້ານເຊື້ອຮ່ວມກັນ</t>
-  </si>
-  <si>
-    <t>ສະແດງພະຍາດປະຈຳໂຕອື່ນໆຮ່ວມ</t>
-  </si>
-  <si>
-    <t>ການປະເມີນ SIR</t>
-  </si>
-  <si>
-    <t>ຕົວຢ່າງ</t>
-  </si>
-  <si>
-    <t>ຊຸດຂໍ້ມູນ REDCap ຫວ່າງເປົ່າ/ຢູ່ໃນຮູບແບທີ່ບໍ່ຖືກຕ້ອງ. ກະລຸນາຕິດຕໍ່ ACORN support.</t>
-  </si>
-  <si>
-    <t>ຊຸດຂໍ້ມູນ REDCap ແມ່ນຢູ່ໃນຮູບແບບທີ່ຖືກຕ້ອງ.</t>
-  </si>
-  <si>
-    <t>ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
-  </si>
-  <si>
-    <t>ບໍ່ມີການຕິດຕາມ D28 ກ່ອນວັນທີ D28 ທີ່ຄາດໝາຍໄວ້.</t>
-  </si>
-  <si>
-    <t>ພວກເຮົາບໍ່ສາມາດຶງຂໍ້ມູນພົດຈະນານຸກົມຂອງແລັບ. ກະລຸນາຕິດຕໍ່ ACORN support</t>
-  </si>
-  <si>
-    <t>ສ້າງ ແລະ ດຶງຂໍ້ມູນ .acorn ຈາກຂໍ້ມູນທາງຄຣີນິກ ແລະ ແລັບ</t>
-  </si>
-  <si>
-    <t>ໄດ້ຮັບ production ຫຼ້າສຸດ</t>
-  </si>
-  <si>
-    <t>ແຖບແນວນອນສະແດງຂະຫນາດຂອງຊຸດຂອງຜົນໄດ້ຮັບ SR ໃນຂະນະທີ່ແຖບຕັ້ງສະແດງເຖິງຈໍານວນຂອງການແຍກເຊື້ອທີ່ຕ້ານຕໍ່ຢາສຳລັບຢາຕ້ານເຊື້ອທີ່ກ່ຽວຂ້ອງ.</t>
-  </si>
-  <si>
-    <t>ກວດພົບບັນຫາກ່ຽວກັບຂໍ້ມູນໃນ REDCap. ກະລຸນາແຈ້ງຕໍ່ຜູ້ຈັດການຂໍ້ມູນ ACORN, ຈົນກວ່າຈະໄດ້ຂໍ້ສະຫຼຸບ. ທ່ານສາມາດນຳໃຊ້ຂໍ້ມູນຂອງ .acorn ທີ່ມີຢູ່ໄດ້ເທົ່ານັ້ນ</t>
-  </si>
-  <si>
-    <t>ຂໍ້ມູນ Susceptible &amp; Intermediate ແມ່ນຖືກລວມເຂົ້າກັນທຸກໆຄັ້ງໃນການນຳສະເໜີຂໍ້ມູນຂອງ co-resistances.</t>
-  </si>
-  <si>
-    <t>ບໍ່ມີກໍລະນີທີ່ຜິດປົກກະຕິ  (HCAI/CAI ໜຶ່ງລາຍການນີ້ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ).</t>
-  </si>
-  <si>
-    <t>ທ່ານກຳລັງໃຊ້ງານ ACORN dashboard</t>
-  </si>
-  <si>
-    <t>ທ່ານສາມາດກວດສອບໄດ້ຢູ່ບ່ອນນີ້ວ່າເປັນເວີຊັນທີ່ໃຊ້ງານຫຼ້າສຸດຫຼືບໍ່</t>
-  </si>
-  <si>
-    <t>ACORN dashboard ໄດ້ຮັບການ update ແລ້ວ</t>
-  </si>
-  <si>
-    <t>ຟອມ F02 ບໍ່ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
-  </si>
-  <si>
-    <t>ຟອມ F02 ມີຫຼາຍໆຟອມທີ່ມີລະຫັດ ACORN, ວັນທີເຂົ້ານອນ, ແລະ ວັນທີເທື່ອຄັ້ງເຂົ້າການສຶກສາດຽວກັນ.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ລະຫັດຄົນເຈັບຕໍ່ໄປນີ້ເປັນກໍລະນີທີ່ຜິດປົກກະຕິ (HCAI/CAI ໜຶ່ງລາຍການນີ້ທີ່ມີກ່ອນ HAI ແຕ່ຂໍ້ມູນບໍ່ທັບຊ້ອນກັນ) </t>
-  </si>
-  <si>
-    <t>ບາງວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບ HAI ຈະກົງກັນກັບວັນທີໃນຊຸດຂໍ້ມູນຂອງການສຳຫຼວດ HAI</t>
-  </si>
-  <si>
-    <t>ຂໍ້ມູນ ACORN ແມ່ນຢູ່ໃນຮູບແບບທີ່ບໍ່ຖືກຕ້ອງ. ສະເພາະຂໍ້ມູນທີ່ສ້າງຈາກ v2.1 (ຫຼື ເວີຊັນທີ່ໃໝ່ກວ່າ) ເທົ່ານັ້ນທີ່ເຂົ້າກັນໄດ້</t>
-  </si>
-  <si>
-    <t>ສະເພາະເຊື້ອພະຍາດທີ່ຖືກທົດສອບໃສ່ກັບຢາທັງໝົດ ທີ່ຖືກນຳສະເໜີໃນຮູບພາບນີ້</t>
-  </si>
-  <si>
-    <t>ບັນທຶກບາງລາຍການບໍ່ມີ ACORN ID. ບັນທຶກເຫຼົ່ານີ້ໄດ້ຖືກລືບແລ້ວ</t>
+    <t>ດຶງຂໍ້ມູນບັນທຶກທາງຫ້ອງວິເຄາະ (.xlsx)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ບໍ່ມີ .acorn ຖືກສ້າງຂື້ນ </t>
+  </si>
+  <si>
+    <t>ບໍ່ມີ .acorn ຖືກບັນທຶກ</t>
+  </si>
+  <si>
+    <t>ລຶບຕົວຢ່າງທີ່ບໍ່ໄດ້ຖືກປູກອອກ</t>
+  </si>
+  <si>
+    <t>ຂໍ້ມູນທາງຫ້ອງວິເຄາະບໍ່ຖືກຕອບສະໜອງ</t>
+  </si>
+  <si>
+    <t>ການບົ່ງມະຕິການເຝົ້າລະວັງໃນເບື້ອງຕົ້ນ &amp; ຂັ້ນສຸດທ້າຍ</t>
+  </si>
+  <si>
+    <t>Susceptible ແລະ Intermediate ແມ່ນຖືກລວມເຂົ້າກັນທຸກໆຄັ້ງໃນການນຳສະເໜີຂໍ້ມູນຂອງ co-resistances.</t>
+  </si>
+  <si>
+    <t>ມີແຖວຂອງ 'specdate' ເເມ່ນມື້ຫຼັງຈາກນີ້</t>
+  </si>
+  <si>
+    <t>ມີຊື່ຂອງເຊື້ອພະຍາດທັງກ່ອນ ແລະ ຫຼັງການສ້າງແຜນພາບ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ຈຸດ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ຄວາມຊຸກຊຸມຂອງການຊຶມເຊື້ອໃນໂຮງໝໍໂດຍ</t>
+    </r>
+  </si>
+  <si>
+    <t>ການເຝົ້າລະວັງການບົ່ງມະຕິໃນເບື້ອງຕົ້ນ ແລະ ຂັ້ນສຸດທ້າຍ</t>
+  </si>
+  <si>
+    <t>ຂໍ້ມູນອາການທາງຄຣີນິກບໍ່ຖືກຕອບສະໜອງ</t>
+  </si>
+  <si>
+    <t>(4/4) ບັນທຶກເອກະສານຂອງ.acorn</t>
+  </si>
+  <si>
+    <t>ທັງໝົດຂອງ 'specgroup' ແມ່ນຖືກກຳນົດໄວ້ແລ້ວ</t>
+  </si>
+  <si>
+    <t>ທຸກວັນທີເຂົ້າການສຶກສາສຳລັບຄົນເຈັບ HAI ຈັບຄູ່ເຂົ້າກັບວັນທີເຮັດການສຳຫຼວດ HAI</t>
+  </si>
+  <si>
+    <t>ເຂົ້າຮ່ວມການສຶກສາໂດຍ (ປະເພດຂອງ) ພະແນກ</t>
+  </si>
+  <si>
+    <t>ໜ້າທຳອິດເປັນບັນທຶກການລົງທະບຽນເຂົ້າຮ່ວມທັງໝົດທີ່ດຶງມາຈາກ REDCap (ຕາມຕາຕະລາງທີ່ຢູ່ໃກ້ກັນ) ໜ້າທີສອງແມ່ນການສະແດງລາຍການອົງປະກອບທີ່ຖືກຕັ້ງຄ່າແລ້ວ</t>
+  </si>
+  <si>
+    <t>ເກີດເຊື້ອ / ບໍ່ເກີດເຊື້ອ</t>
   </si>
 </sst>
 </file>
@@ -1106,9 +1154,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1137,8 +1185,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1477,16 +1525,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:B186"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="90.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="69" style="2" customWidth="1"/>
+    <col min="1" max="1" width="86.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="88.6640625" style="2" customWidth="1"/>
     <col min="3" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -1551,23 +1599,23 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1575,63 +1623,63 @@
         <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>351</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>328</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1663,116 +1711,116 @@
         <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>325</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>326</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>66</v>
@@ -1783,23 +1831,23 @@
         <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1871,7 +1919,7 @@
         <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1895,679 +1943,679 @@
         <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>346</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>338</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>339</v>
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>130</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>138</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>147</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>174</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>176</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>352</v>
+        <v>178</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>212</v>
+        <v>349</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>329</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>330</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>331</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>353</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -2639,307 +2687,347 @@
         <v>263</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>342</v>
+        <v>264</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>349</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>333</v>
+        <v>272</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>348</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>343</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>291</v>
+        <v>353</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>324</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>